--- a/biology/Médecine/Vilém_Dušan_Lambl/Vilém_Dušan_Lambl.xlsx
+++ b/biology/Médecine/Vilém_Dušan_Lambl/Vilém_Dušan_Lambl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vil%C3%A9m_Du%C5%A1an_Lambl</t>
+          <t>Vilém_Dušan_Lambl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vilém Dušan Lambl, né le 5 décembre 1824 à Letiny, en royaume de Bohême, décédé le 12 février 1895, est un médecin et linguiste bohémien. L'orthographe germanique de son nom est Wilhelm Lambl.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vil%C3%A9m_Du%C5%A1an_Lambl</t>
+          <t>Vilém_Dušan_Lambl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Résumé biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son diplôme de médecin de l'université de Prague dans les années 1840. Sa carrière se déroula dans divers pays de langue slave : il fut professeur à l'université de Varsovie et à celle de Kharkov en Ukraine. Il travailla aussi à l'hôpital pour enfants de Josef von Löschner à Prague.
 On lui doit la description d'un parasite unicellulaire intestinal responsable de gastro-entérites, qui avait antérieurement été aperçu au microscope par Antoni van Leeuwenhoek (1632-1723). Lambl donna au protozoaire le nom de Cercomonas intestinalis. En 1888 ce nom fut changé en son honneur en Lamblia intestinalis par le  zoologiste Émile Blanchard (1819-1900). En 1915 l'espèce fut à nouveau rebaptisée Giardia lamblia par le zoologiste Charles Wardell Stiles (1867-1941) pour honorer également le biologiste français Alfred Giard (1846-1908). Aujourd'hui la maladie causée par ce parasite est désignée indifféremment sous le nom de lambliase ou de giardiase.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vil%C3%A9m_Du%C5%A1an_Lambl</t>
+          <t>Vilém_Dušan_Lambl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Excroissances de Lambl : il s'agit de petits dépôts de fibrine sur les valves aortiques</t>
         </is>
